--- a/Images and Queries.xlsx
+++ b/Images and Queries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherm\Documents\Intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A8578-EAAD-4FDA-A322-A58E12A935B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CC3F5-2D55-4EC4-8F53-A218FF8F44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{BD3F9900-4455-46C3-A3C5-038D760C1B05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="124">
   <si>
     <t>01</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Generated Reply</t>
   </si>
 </sst>
 </file>
@@ -791,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDB8D8-0B13-474F-9E32-3167EE2C5627}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -802,13 +805,15 @@
     <col min="1" max="1" width="8.83984375" style="2"/>
     <col min="2" max="2" width="13.3671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.83984375" style="2"/>
+    <col min="4" max="4" width="8.83984375" style="2"/>
+    <col min="5" max="5" width="13.62890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.83984375" style="2"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.1015625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
@@ -821,8 +826,11 @@
       <c r="D1" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +872,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,7 +886,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -892,7 +900,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,7 +914,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,7 +928,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,7 +942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,7 +956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,7 +970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,7 +984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -990,7 +998,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
